--- a/models/calculation engines/cbix2/outputs/panamax/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/final_costing_up_for_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/panamax/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/final_costing_up_for_leg.xlsx
@@ -709,7 +709,7 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>9265.191428571428</v>
+        <v>9265.191428571427</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
